--- a/biology/Botanique/Johann_Georg_Conrad_Oberdieck/Johann_Georg_Conrad_Oberdieck.xlsx
+++ b/biology/Botanique/Johann_Georg_Conrad_Oberdieck/Johann_Georg_Conrad_Oberdieck.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johann Georg Conrad Oberdieck (30 août 1794, Wilkenburg – 24 février 1880, Herzberg am Harz) est un ecclésiastique allemand et un pomologue.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">De 1812 à 1815, il étudie la théologie à l'université de Göttingen. Tout en poursuivant ses études, il travaille  à la Michaelisschule de Lunebourg. 
-Après plusieurs années, il est nommé pasteur à Bardowick puis travaille comme gestionnaire ecclésiastique à Sulingen (à partir de 1831) et à Nienburg/Weser (à partir de 1839). En 1853, il rejoint la communauté de Jeinsen où il exerce comme superintendant[1]
-Avec Édouard Lucas, il édite le journal Monatsschrift für Pomologie und praktischen Obstbau ("Mensuel de pomologie et de gestion de plants fruitiers"), appelé ensuite Pomologische Monatshefte. Le prix Oberdieck (Oberdieck-Preis) est une récompense attribuée annuellement par Pomologen-Verein eV et la ville de Naumburg (Hesse) pour les travaux relatifs à la conservation des ressources génétiques en faveur de la culture fruitière[2].
-Les cultivars Oberdieck's taubenapfel (pomme-pigeon Oberdieck) et Oberdieck's reinette (une reinette) portent son nom[3].
+Après plusieurs années, il est nommé pasteur à Bardowick puis travaille comme gestionnaire ecclésiastique à Sulingen (à partir de 1831) et à Nienburg/Weser (à partir de 1839). En 1853, il rejoint la communauté de Jeinsen où il exerce comme superintendant
+Avec Édouard Lucas, il édite le journal Monatsschrift für Pomologie und praktischen Obstbau ("Mensuel de pomologie et de gestion de plants fruitiers"), appelé ensuite Pomologische Monatshefte. Le prix Oberdieck (Oberdieck-Preis) est une récompense attribuée annuellement par Pomologen-Verein eV et la ville de Naumburg (Hesse) pour les travaux relatifs à la conservation des ressources génétiques en faveur de la culture fruitière.
+Les cultivars Oberdieck's taubenapfel (pomme-pigeon Oberdieck) et Oberdieck's reinette (une reinette) portent son nom.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Sélection de ses travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Anleitung zur Kenntniß und Anpflanzung des besten Obstes für das nördliche Deutschland, 1852 – Instructions pour planter les meilleurs arbres fruitiers en Allemagne du nord.
 Beiträge zur Hebung der Obstcultur (with Eduard Lucas, 1857) – Contributions à la culture fruitière.
@@ -553,7 +569,7 @@
 Pomologische Notizen. Nach langjährigen eigenen Erfahrungen zusammengestellt, 1869 – Pomological notes. Compilation d'expériences personnelles sur une longue durée.
 Beobachtungen über das Erfrieren vieler Gewächse in kalten Wintern; nebst Erörterung der Mittel, durch welche Frostschaden möglichst verhütet werden kann, 1872 – Observations sur la réaction de nombreuses plantes au cours d'hivers particulièrement froids, etc.
 Illustrirtes Handbuch der Obstkunde (with Eduard Lucas and Friedrich Jahn; 8 volumes 1859–75) – Manuel illustré de pomologie.
-Deutschlands beste Obstsorten; Anleitung zur Kenntnis und Anpflanzung einer, nach strenger Auswahl zusammengestellten Anzahl von Obstsorten, 1881 – meilleurs fruits d'Allemagne; notes et culture[4],[5].</t>
+Deutschlands beste Obstsorten; Anleitung zur Kenntnis und Anpflanzung einer, nach strenger Auswahl zusammengestellten Anzahl von Obstsorten, 1881 – meilleurs fruits d'Allemagne; notes et culture,.</t>
         </is>
       </c>
     </row>
